--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C19FFD4C-B90C-4869-B4E4-EBD4710BF311}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B04A3BDE-0003-4BAA-AAF2-97FEC6786280}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0.36499999999999999</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.36499999999999999</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B04A3BDE-0003-4BAA-AAF2-97FEC6786280}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF406612-5002-4FC1-AF56-34601A7DE6CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="27"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,10 +1003,13 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1028,7 +1033,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1069,7 +1074,7 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>10</v>
       </c>
       <c r="I2">
@@ -1089,187 +1094,187 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.27</v>
-      </c>
-      <c r="F3">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.27</v>
-      </c>
-      <c r="H3">
-        <v>0.76</v>
-      </c>
-      <c r="I3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I3" s="1">
         <f>H3*0.5</f>
-        <v>0.38</v>
-      </c>
-      <c r="J3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" ref="J3:L3" si="0">I3*0.5</f>
-        <v>0.19</v>
-      </c>
-      <c r="K3">
+        <v>0.1925</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L3">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="M3">
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="M3" s="1">
         <f>K3*0.5</f>
-        <v>4.7500000000000001E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.27</v>
-      </c>
-      <c r="F4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.27</v>
-      </c>
-      <c r="H4">
-        <v>0.27</v>
-      </c>
-      <c r="I4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" ref="I4:L4" si="1">H4*0.5</f>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="J4">
+        <v>0.115</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="K4">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>3.3750000000000002E-2</v>
-      </c>
-      <c r="L4">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>1.6875000000000001E-2</v>
-      </c>
-      <c r="M4">
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" ref="M4:M34" si="2">K4*0.5</f>
-        <v>1.6875000000000001E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.27</v>
-      </c>
-      <c r="D5">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.27</v>
-      </c>
-      <c r="F5">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.27</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" ref="I5:L5" si="3">H5*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J5">
+        <v>0.115</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="K5">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L5">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.27</v>
-      </c>
-      <c r="D6">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.27</v>
-      </c>
-      <c r="F6">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.27</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" ref="I6:L6" si="4">H6*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="K6">
+        <v>0.1925</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L6">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1277,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0.36499999999999999</v>
@@ -1294,28 +1299,28 @@
       <c r="G7">
         <v>0.27</v>
       </c>
-      <c r="H7">
-        <v>0.5</v>
+      <c r="H7" s="2">
+        <v>0.48</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:L7" si="5">H7*0.5</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1323,10 +1328,10 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0.36499999999999999</v>
@@ -1340,28 +1345,28 @@
       <c r="G8">
         <v>0.27</v>
       </c>
-      <c r="H8">
-        <v>0.5</v>
+      <c r="H8" s="2">
+        <v>0.48</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:L8" si="6">H8*0.5</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1369,10 +1374,10 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0.36499999999999999</v>
@@ -1386,28 +1391,28 @@
       <c r="G9">
         <v>0.27</v>
       </c>
-      <c r="H9">
-        <v>0.5</v>
+      <c r="H9" s="2">
+        <v>0.26</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:L9" si="7">H9*0.5</f>
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>6.25E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.125E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1415,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0.36499999999999999</v>
@@ -1432,212 +1437,212 @@
       <c r="G10">
         <v>0.27</v>
       </c>
-      <c r="H10">
-        <v>0.5</v>
+      <c r="H10" s="2">
+        <v>0.78</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:L10" si="8">H10*0.5</f>
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.125</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>6.25E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>3.125E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.27</v>
-      </c>
-      <c r="D11">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.27</v>
-      </c>
-      <c r="F11">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.27</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" ref="I11:L11" si="9">H11*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J11">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
-      <c r="K11">
+        <v>0.1925</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="9"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L11">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="9"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.27</v>
-      </c>
-      <c r="D12">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.27</v>
-      </c>
-      <c r="F12">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G12">
-        <v>0.27</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" ref="I12:L12" si="10">H12*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J12">
+        <v>0.115</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="K12">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L12">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="10"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.27</v>
-      </c>
-      <c r="D13">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.27</v>
-      </c>
-      <c r="F13">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.27</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" ref="I13:L13" si="11">H13*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J13">
+        <v>0.115</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-      <c r="K13">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L13">
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="11"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.27</v>
-      </c>
-      <c r="D14">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.27</v>
-      </c>
-      <c r="F14">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.27</v>
-      </c>
-      <c r="H14">
-        <v>0.5</v>
-      </c>
-      <c r="I14">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" ref="I14:L14" si="12">H14*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J14">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="12"/>
-        <v>0.125</v>
-      </c>
-      <c r="K14">
+        <v>0.1925</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="12"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L14">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="12"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1645,10 +1650,10 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0.36499999999999999</v>
@@ -1662,28 +1667,28 @@
       <c r="G15">
         <v>0.27</v>
       </c>
-      <c r="H15">
-        <v>0.5</v>
+      <c r="H15" s="2">
+        <v>0.48</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*0.5</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1691,10 +1696,10 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0.36499999999999999</v>
@@ -1708,28 +1713,28 @@
       <c r="G16">
         <v>0.27</v>
       </c>
-      <c r="H16">
-        <v>0.5</v>
+      <c r="H16" s="2">
+        <v>0.48</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:L16" si="14">H16*0.5</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J16">
         <f t="shared" si="14"/>
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="K16">
         <f t="shared" si="14"/>
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L16">
         <f t="shared" si="14"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1737,10 +1742,10 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0.36499999999999999</v>
@@ -1754,28 +1759,28 @@
       <c r="G17">
         <v>0.27</v>
       </c>
-      <c r="H17">
-        <v>0.5</v>
+      <c r="H17" s="2">
+        <v>0.78</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:L17" si="15">H17*0.5</f>
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="J17">
         <f t="shared" si="15"/>
-        <v>0.125</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K17">
         <f t="shared" si="15"/>
-        <v>6.25E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="15"/>
-        <v>3.125E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1783,10 +1788,10 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0.36499999999999999</v>
@@ -1800,212 +1805,212 @@
       <c r="G18">
         <v>0.27</v>
       </c>
-      <c r="H18">
-        <v>0.5</v>
+      <c r="H18" s="2">
+        <v>0.26</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:L18" si="16">H18*0.5</f>
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="J18">
         <f t="shared" si="16"/>
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="16"/>
-        <v>6.25E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.27</v>
-      </c>
-      <c r="D19">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.27</v>
-      </c>
-      <c r="F19">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G19">
-        <v>0.27</v>
-      </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" ref="I19:L19" si="17">H19*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J19">
+        <v>0.24</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="17"/>
-        <v>0.125</v>
-      </c>
-      <c r="K19">
+        <v>0.12</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L19">
+        <v>0.06</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C20">
-        <v>0.27</v>
-      </c>
-      <c r="D20">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.27</v>
-      </c>
-      <c r="F20">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G20">
-        <v>0.27</v>
-      </c>
-      <c r="H20">
-        <v>0.5</v>
-      </c>
-      <c r="I20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" ref="I20:L20" si="18">H20*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J20">
+        <v>0.24</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="18"/>
-        <v>0.125</v>
-      </c>
-      <c r="K20">
+        <v>0.12</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="18"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L20">
+        <v>0.06</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="18"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C21">
-        <v>0.27</v>
-      </c>
-      <c r="D21">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0.27</v>
-      </c>
-      <c r="F21">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G21">
-        <v>0.27</v>
-      </c>
-      <c r="H21">
-        <v>0.5</v>
-      </c>
-      <c r="I21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" ref="I21:L21" si="19">H21*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J21">
+        <v>0.13</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="19"/>
-        <v>0.125</v>
-      </c>
-      <c r="K21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="19"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L21">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="19"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6250000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C22">
-        <v>0.27</v>
-      </c>
-      <c r="D22">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E22">
-        <v>0.27</v>
-      </c>
-      <c r="F22">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G22">
-        <v>0.27</v>
-      </c>
-      <c r="H22">
-        <v>0.5</v>
-      </c>
-      <c r="I22">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" ref="I22:L22" si="20">H22*0.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="J22">
+        <v>0.39</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="20"/>
-        <v>0.125</v>
-      </c>
-      <c r="K22">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="20"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L22">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="20"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2013,10 +2018,10 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0.36499999999999999</v>
@@ -2030,28 +2035,28 @@
       <c r="G23">
         <v>0.27</v>
       </c>
-      <c r="H23">
-        <v>0.5</v>
+      <c r="H23" s="2">
+        <v>0.24</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:L23" si="21">H23*0.5</f>
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="J23">
         <f t="shared" si="21"/>
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="K23">
         <f t="shared" si="21"/>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L23">
         <f t="shared" si="21"/>
-        <v>3.125E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2059,10 +2064,10 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0.36499999999999999</v>
@@ -2076,28 +2081,28 @@
       <c r="G24">
         <v>0.27</v>
       </c>
-      <c r="H24">
-        <v>0.5</v>
+      <c r="H24" s="2">
+        <v>0.77</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:L24" si="22">H24*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J24">
         <f t="shared" si="22"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K24">
         <f t="shared" si="22"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="22"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,7 +2127,7 @@
       <c r="G25">
         <v>0.27</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.5</v>
       </c>
       <c r="I25">
@@ -2168,7 +2173,7 @@
       <c r="G26">
         <v>0.27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>0.5</v>
       </c>
       <c r="I26">
@@ -2193,185 +2198,185 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.27</v>
-      </c>
-      <c r="D27">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.27</v>
-      </c>
-      <c r="F27">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G27">
-        <v>0.27</v>
-      </c>
-      <c r="H27">
+      <c r="B27" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H27" s="2">
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <f t="shared" ref="I27:L27" si="25">H27*0.5</f>
         <v>0.25</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <f t="shared" si="25"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <f t="shared" si="25"/>
         <v>3.125E-2</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.27</v>
-      </c>
-      <c r="D28">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0.27</v>
-      </c>
-      <c r="F28">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G28">
-        <v>0.27</v>
-      </c>
-      <c r="H28">
+      <c r="B28" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H28" s="2">
         <v>0.5</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <f t="shared" ref="I28:L28" si="26">H28*0.5</f>
         <v>0.25</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <f t="shared" si="26"/>
         <v>3.125E-2</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.27</v>
-      </c>
-      <c r="D29">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0.27</v>
-      </c>
-      <c r="F29">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G29">
-        <v>0.27</v>
-      </c>
-      <c r="H29">
+      <c r="B29" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H29" s="2">
         <v>0.5</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <f t="shared" ref="I29:L29" si="27">H29*0.5</f>
         <v>0.25</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <f t="shared" si="27"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <f t="shared" si="27"/>
         <v>3.125E-2</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C30">
-        <v>0.27</v>
-      </c>
-      <c r="D30">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E30">
-        <v>0.27</v>
-      </c>
-      <c r="F30">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G30">
-        <v>0.27</v>
-      </c>
-      <c r="H30">
+      <c r="B30" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H30" s="2">
         <v>0.5</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <f t="shared" ref="I30:L30" si="28">H30*0.5</f>
         <v>0.25</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <f t="shared" si="28"/>
         <v>0.125</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <f t="shared" si="28"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <f t="shared" si="28"/>
         <v>3.125E-2</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
@@ -2398,7 +2403,7 @@
       <c r="G31">
         <v>0.27</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>0.5</v>
       </c>
       <c r="I31">
@@ -2444,7 +2449,7 @@
       <c r="G32">
         <v>0.27</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>0.5</v>
       </c>
       <c r="I32">
@@ -2490,7 +2495,7 @@
       <c r="G33">
         <v>0.27</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>0.5</v>
       </c>
       <c r="I33">
@@ -2536,7 +2541,7 @@
       <c r="G34">
         <v>0.27</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>0.5</v>
       </c>
       <c r="I34">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF406612-5002-4FC1-AF56-34601A7DE6CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1467AE71-266B-4C29-B749-E23C21EC99E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,27 +2036,27 @@
         <v>0.27</v>
       </c>
       <c r="H23" s="2">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:L23" si="21">H23*0.5</f>
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="J23">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K23">
         <f t="shared" si="21"/>
-        <v>0.03</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="21"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2110,10 +2110,10 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0.36499999999999999</v>
@@ -2128,27 +2128,27 @@
         <v>0.27</v>
       </c>
       <c r="H25" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:L25" si="23">H25*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J25">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K25">
         <f t="shared" si="23"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="23"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2156,10 +2156,10 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0.36499999999999999</v>
@@ -2174,27 +2174,27 @@
         <v>0.27</v>
       </c>
       <c r="H26" s="2">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:L26" si="24">H26*0.5</f>
-        <v>0.25</v>
+        <v>0.115</v>
       </c>
       <c r="J26">
         <f t="shared" si="24"/>
-        <v>0.125</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="24"/>
-        <v>6.25E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="24"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2202,10 +2202,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0.36499999999999999</v>
@@ -2220,27 +2220,27 @@
         <v>0.27</v>
       </c>
       <c r="H27" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ref="I27:L27" si="25">H27*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="25"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="25"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="25"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2248,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>0.36499999999999999</v>
@@ -2294,10 +2294,10 @@
         <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>0.36499999999999999</v>
@@ -2340,10 +2340,10 @@
         <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0.36499999999999999</v>
@@ -2358,27 +2358,27 @@
         <v>0.27</v>
       </c>
       <c r="H30" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:L30" si="28">H30*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="28"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="28"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="28"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2386,10 +2386,10 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0.36499999999999999</v>
@@ -2404,27 +2404,27 @@
         <v>0.27</v>
       </c>
       <c r="H31" s="2">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31:L31" si="29">H31*0.5</f>
-        <v>0.25</v>
+        <v>0.115</v>
       </c>
       <c r="J31">
         <f t="shared" si="29"/>
-        <v>0.125</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="29"/>
-        <v>6.25E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="29"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,10 +2432,10 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0.36499999999999999</v>
@@ -2450,27 +2450,27 @@
         <v>0.27</v>
       </c>
       <c r="H32" s="2">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:L32" si="30">H32*0.5</f>
-        <v>0.25</v>
+        <v>0.115</v>
       </c>
       <c r="J32">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K32">
         <f t="shared" si="30"/>
-        <v>6.25E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="30"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>1.4375000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2478,10 +2478,10 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0.36499999999999999</v>
@@ -2496,27 +2496,27 @@
         <v>0.27</v>
       </c>
       <c r="H33" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:L33" si="31">H33*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J33">
         <f t="shared" si="31"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K33">
         <f t="shared" si="31"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="31"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,10 +2524,10 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0.36499999999999999</v>
@@ -2542,27 +2542,27 @@
         <v>0.27</v>
       </c>
       <c r="H34" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:L34" si="32">H34*0.5</f>
-        <v>0.25</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J34">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>0.1925</v>
       </c>
       <c r="K34">
         <f t="shared" si="32"/>
-        <v>6.25E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L34">
         <f t="shared" si="32"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>4.8125000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1467AE71-266B-4C29-B749-E23C21EC99E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{461613A7-F42E-4793-8FA5-00AAFA11493C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0.36499999999999999</v>
@@ -1116,27 +1116,27 @@
         <v>0.27</v>
       </c>
       <c r="H3" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <f>H3*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:L3" si="0">I3*0.5</f>
-        <v>0.1925</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M3" s="1">
         <f>K3*0.5</f>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0.36499999999999999</v>
@@ -1162,27 +1162,27 @@
         <v>0.27</v>
       </c>
       <c r="H4" s="2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:L4" si="1">H4*0.5</f>
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>2.8750000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M34" si="2">K4*0.5</f>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0.36499999999999999</v>
@@ -1208,27 +1208,27 @@
         <v>0.27</v>
       </c>
       <c r="H5" s="2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:L5" si="3">H5*0.5</f>
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>2.8750000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0.36499999999999999</v>
@@ -1254,27 +1254,27 @@
         <v>0.27</v>
       </c>
       <c r="H6" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:L6" si="4">H6*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>0.1925</v>
+        <v>0.25</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.36499999999999999</v>
@@ -1300,27 +1300,27 @@
         <v>0.27</v>
       </c>
       <c r="H7" s="2">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:L7" si="5">H7*0.5</f>
-        <v>0.24</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.12</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>8.8749999999999996E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>4.4374999999999998E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>4.4374999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.36499999999999999</v>
@@ -1346,27 +1346,27 @@
         <v>0.27</v>
       </c>
       <c r="H8" s="2">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:L8" si="6">H8*0.5</f>
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0.36499999999999999</v>
@@ -1392,27 +1392,27 @@
         <v>0.27</v>
       </c>
       <c r="H9" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:L9" si="7">H9*0.5</f>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>3.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.6250000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>1.6250000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0.36499999999999999</v>
@@ -1438,27 +1438,27 @@
         <v>0.27</v>
       </c>
       <c r="H10" s="2">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:L10" si="8">H10*0.5</f>
-        <v>0.39</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.19500000000000001</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>9.7500000000000003E-2</v>
+        <v>5.1249999999999997E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>4.8750000000000002E-2</v>
+        <v>2.5624999999999998E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>4.8750000000000002E-2</v>
+        <v>2.5624999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0.36499999999999999</v>
@@ -1484,27 +1484,27 @@
         <v>0.27</v>
       </c>
       <c r="H11" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ref="I11:L11" si="9">H11*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="9"/>
-        <v>0.1925</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="9"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="9"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>0.36499999999999999</v>
@@ -1530,27 +1530,27 @@
         <v>0.27</v>
       </c>
       <c r="H12" s="2">
-        <v>0.23</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12:L12" si="10">H12*0.5</f>
-        <v>0.115</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="10"/>
-        <v>5.7500000000000002E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="10"/>
-        <v>2.8750000000000001E-2</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="10"/>
-        <v>1.4375000000000001E-2</v>
+        <v>4.3750000000000004E-3</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>4.3750000000000004E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0.36499999999999999</v>
@@ -1576,27 +1576,27 @@
         <v>0.27</v>
       </c>
       <c r="H13" s="2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13:L13" si="11">H13*0.5</f>
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="11"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="11"/>
-        <v>2.8750000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="11"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0.36499999999999999</v>
@@ -1622,27 +1622,27 @@
         <v>0.27</v>
       </c>
       <c r="H14" s="2">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14:L14" si="12">H14*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="12"/>
-        <v>0.1925</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="12"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.11625000000000001</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="12"/>
-        <v>4.8125000000000001E-2</v>
+        <v>5.8125000000000003E-2</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>5.8125000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0.36499999999999999</v>
@@ -1668,27 +1668,27 @@
         <v>0.27</v>
       </c>
       <c r="H15" s="2">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*0.5</f>
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>0.12</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>0.06</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>0.03</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0.36499999999999999</v>
@@ -1714,27 +1714,27 @@
         <v>0.27</v>
       </c>
       <c r="H16" s="2">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:L16" si="14">H16*0.5</f>
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
         <f t="shared" si="14"/>
-        <v>0.12</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K16">
         <f t="shared" si="14"/>
-        <v>0.06</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="14"/>
-        <v>0.03</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0.36499999999999999</v>
@@ -1760,27 +1760,27 @@
         <v>0.27</v>
       </c>
       <c r="H17" s="2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:L17" si="15">H17*0.5</f>
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
         <f t="shared" si="15"/>
-        <v>0.19500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K17">
         <f t="shared" si="15"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L17">
         <f t="shared" si="15"/>
-        <v>4.8750000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>4.8750000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0.36499999999999999</v>
@@ -1806,27 +1806,27 @@
         <v>0.27</v>
       </c>
       <c r="H18" s="2">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:L18" si="16">H18*0.5</f>
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="J18">
         <f t="shared" si="16"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.15</v>
       </c>
       <c r="K18">
         <f t="shared" si="16"/>
-        <v>3.2500000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>1.6250000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>1.6250000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0.36499999999999999</v>
@@ -1852,27 +1852,27 @@
         <v>0.27</v>
       </c>
       <c r="H19" s="2">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:L19" si="17">H19*0.5</f>
-        <v>0.24</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="17"/>
-        <v>0.12</v>
+        <v>0.1825</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="17"/>
-        <v>0.06</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="17"/>
-        <v>0.03</v>
+        <v>4.5624999999999999E-2</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>4.5624999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0.36499999999999999</v>
@@ -1898,27 +1898,27 @@
         <v>0.27</v>
       </c>
       <c r="H20" s="2">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ref="I20:L20" si="18">H20*0.5</f>
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="18"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="18"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0.36499999999999999</v>
@@ -1944,27 +1944,27 @@
         <v>0.27</v>
       </c>
       <c r="H21" s="2">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ref="I21:L21" si="19">H21*0.5</f>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="19"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="19"/>
-        <v>3.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="19"/>
-        <v>1.6250000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="2"/>
-        <v>1.6250000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>0.36499999999999999</v>
@@ -1990,27 +1990,27 @@
         <v>0.27</v>
       </c>
       <c r="H22" s="2">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:L22" si="20">H22*0.5</f>
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="20"/>
-        <v>0.19500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="20"/>
-        <v>9.7500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="20"/>
-        <v>4.8750000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="2"/>
-        <v>4.8750000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0.36499999999999999</v>
@@ -2036,27 +2036,27 @@
         <v>0.27</v>
       </c>
       <c r="H23" s="2">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:L23" si="21">H23*0.5</f>
-        <v>0.115</v>
+        <v>0.24</v>
       </c>
       <c r="J23">
         <f t="shared" si="21"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="K23">
         <f t="shared" si="21"/>
-        <v>2.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L23">
         <f t="shared" si="21"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2070,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0.36499999999999999</v>
@@ -2082,27 +2082,27 @@
         <v>0.27</v>
       </c>
       <c r="H24" s="2">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:L24" si="22">H24*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="J24">
         <f t="shared" si="22"/>
-        <v>0.1925</v>
+        <v>0.24</v>
       </c>
       <c r="K24">
         <f t="shared" si="22"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="L24">
         <f t="shared" si="22"/>
-        <v>4.8125000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0.36499999999999999</v>
@@ -2128,27 +2128,27 @@
         <v>0.27</v>
       </c>
       <c r="H25" s="2">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:L25" si="23">H25*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="J25">
         <f t="shared" si="23"/>
-        <v>0.1925</v>
+        <v>0.1275</v>
       </c>
       <c r="K25">
         <f t="shared" si="23"/>
-        <v>9.6250000000000002E-2</v>
+        <v>6.3750000000000001E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="23"/>
-        <v>4.8125000000000001E-2</v>
+        <v>3.1875000000000001E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>3.1875000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0.36499999999999999</v>
@@ -2174,27 +2174,27 @@
         <v>0.27</v>
       </c>
       <c r="H26" s="2">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:L26" si="24">H26*0.5</f>
-        <v>0.115</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="24"/>
-        <v>5.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="24"/>
-        <v>2.8750000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="L26">
         <f t="shared" si="24"/>
-        <v>1.4375000000000001E-2</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>3.1250000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>0.27</v>
@@ -2220,27 +2220,27 @@
         <v>0.27</v>
       </c>
       <c r="H27" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ref="I27:L27" si="25">H27*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="25"/>
-        <v>0.1925</v>
+        <v>0.25</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="25"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="25"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0.27</v>
@@ -2266,27 +2266,27 @@
         <v>0.27</v>
       </c>
       <c r="H28" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" ref="I28:L28" si="26">H28*0.5</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="26"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="26"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0.27</v>
@@ -2312,27 +2312,27 @@
         <v>0.27</v>
       </c>
       <c r="H29" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" ref="I29:L29" si="27">H29*0.5</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="27"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="27"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="2"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>0.27</v>
@@ -2358,27 +2358,27 @@
         <v>0.27</v>
       </c>
       <c r="H30" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:L30" si="28">H30*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="28"/>
-        <v>0.1925</v>
+        <v>0.25</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="28"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="28"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0.36499999999999999</v>
@@ -2404,27 +2404,27 @@
         <v>0.27</v>
       </c>
       <c r="H31" s="2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31:L31" si="29">H31*0.5</f>
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="29"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" si="29"/>
-        <v>2.8750000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="29"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0.36499999999999999</v>
@@ -2450,27 +2450,27 @@
         <v>0.27</v>
       </c>
       <c r="H32" s="2">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:L32" si="30">H32*0.5</f>
-        <v>0.115</v>
+        <v>0.21</v>
       </c>
       <c r="J32">
         <f t="shared" si="30"/>
-        <v>5.7500000000000002E-2</v>
+        <v>0.105</v>
       </c>
       <c r="K32">
         <f t="shared" si="30"/>
-        <v>2.8750000000000001E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="30"/>
-        <v>1.4375000000000001E-2</v>
+        <v>2.6249999999999999E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>1.4375000000000001E-2</v>
+        <v>2.6249999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0.36499999999999999</v>
@@ -2496,27 +2496,27 @@
         <v>0.27</v>
       </c>
       <c r="H33" s="2">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:L33" si="31">H33*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="J33">
         <f t="shared" si="31"/>
-        <v>0.1925</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K33">
         <f t="shared" si="31"/>
-        <v>9.6250000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="31"/>
-        <v>4.8125000000000001E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0.36499999999999999</v>
@@ -2542,27 +2542,27 @@
         <v>0.27</v>
       </c>
       <c r="H34" s="2">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:L34" si="32">H34*0.5</f>
-        <v>0.38500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="J34">
         <f t="shared" si="32"/>
-        <v>0.1925</v>
+        <v>0.22</v>
       </c>
       <c r="K34">
         <f t="shared" si="32"/>
-        <v>9.6250000000000002E-2</v>
+        <v>0.11</v>
       </c>
       <c r="L34">
         <f t="shared" si="32"/>
-        <v>4.8125000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>4.8125000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{461613A7-F42E-4793-8FA5-00AAFA11493C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4733FFB2-F7E9-4847-BF9C-C10E1D42D23C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1294,33 +1294,33 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:L7" si="5">H7*0.5</f>
-        <v>0.35499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.17749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>8.8749999999999996E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>4.4374999999999998E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>4.4374999999999998E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1340,33 +1340,33 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:L8" si="6">H8*0.5</f>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1432,33 +1432,33 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:L10" si="8">H10*0.5</f>
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.10249999999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>5.1249999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>2.5624999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>2.5624999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0.36499999999999999</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0.36499999999999999</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>0.36499999999999999</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>0.36499999999999999</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4733FFB2-F7E9-4847-BF9C-C10E1D42D23C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53518F4F-490D-450D-AE72-04AC9FBB1287}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1524,33 +1524,33 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12:L12" si="10">H12*0.5</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="10"/>
-        <v>1.7500000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="10"/>
-        <v>8.7500000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="10"/>
-        <v>4.3750000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>4.3750000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1616,33 +1616,33 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14:L14" si="12">H14*0.5</f>
-        <v>0.46500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="12"/>
-        <v>0.23250000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="12"/>
-        <v>0.11625000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="12"/>
-        <v>5.8125000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>5.8125000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1662,33 +1662,33 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*0.5</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>3.7499999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>1.8749999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>1.8749999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1708,33 +1708,33 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:L16" si="14">H16*0.5</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <f t="shared" si="14"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="14"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="14"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1800,33 +1800,33 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:L18" si="16">H18*0.5</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="16"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="16"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53518F4F-490D-450D-AE72-04AC9FBB1287}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50A77432-7F88-44B9-8A53-9B858BFFCB2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,33 +1846,33 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:L19" si="17">H19*0.5</f>
-        <v>0.36499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="17"/>
-        <v>0.1825</v>
+        <v>0.25</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="17"/>
-        <v>9.1249999999999998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="17"/>
-        <v>4.5624999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
-        <v>4.5624999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1892,33 +1892,33 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ref="I20:L20" si="18">H20*0.5</f>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="18"/>
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="18"/>
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="18"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="2"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1984,33 +1984,33 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:L22" si="20">H22*0.5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="20"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="20"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="20"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2030,33 +2030,33 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:L23" si="21">H23*0.5</f>
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="21"/>
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="21"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2076,33 +2076,33 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:L24" si="22">H24*0.5</f>
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
         <f t="shared" si="22"/>
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="K24">
         <f t="shared" si="22"/>
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="L24">
         <f t="shared" si="22"/>
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,33 +2122,33 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:L25" si="23">H25*0.5</f>
-        <v>0.255</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
         <f t="shared" si="23"/>
-        <v>0.1275</v>
+        <v>0.25</v>
       </c>
       <c r="K25">
         <f t="shared" si="23"/>
-        <v>6.3750000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L25">
         <f t="shared" si="23"/>
-        <v>3.1875000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>3.1875000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2168,33 +2168,33 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:L26" si="24">H26*0.5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="24"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="24"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="24"/>
-        <v>3.1250000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>3.1250000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50A77432-7F88-44B9-8A53-9B858BFFCB2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17AA48E5-2DE6-408D-96D0-727E2B2851EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -2260,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2444,33 +2444,33 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:L32" si="30">H32*0.5</f>
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
         <f t="shared" si="30"/>
-        <v>0.105</v>
+        <v>0.25</v>
       </c>
       <c r="K32">
         <f t="shared" si="30"/>
-        <v>5.2499999999999998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L32">
         <f t="shared" si="30"/>
-        <v>2.6249999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>2.6249999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2490,33 +2490,33 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:L33" si="31">H33*0.5</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f t="shared" si="31"/>
-        <v>0.17499999999999999</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f t="shared" si="31"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="31"/>
-        <v>4.3749999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>4.3749999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,33 +2536,33 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:L34" si="32">H34*0.5</f>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
         <f t="shared" si="32"/>
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="K34">
         <f t="shared" si="32"/>
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="L34">
         <f t="shared" si="32"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>5.5E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17AA48E5-2DE6-408D-96D0-727E2B2851EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60C9F143-B90A-4B8E-A5B5-B18BB2F0FBC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,24 +1625,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14:L14" si="12">H14*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
+        <f t="shared" ref="I14:L14" si="12">I14*0.5</f>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="12"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="12"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1763,24 +1762,23 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:L17" si="15">H17*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="I17:L17" si="15">I17*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="15"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,24 +1853,23 @@
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:L19" si="17">H19*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="I19:L19" si="17">I19*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2085,24 +2082,23 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:L24" si="22">H24*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="22"/>
-        <v>0.25</v>
+        <f t="shared" ref="I24:L24" si="22">I24*0.5</f>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" si="22"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="22"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2223,24 +2219,23 @@
         <v>1</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:L27" si="25">H27*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="I27:L27" si="25">I27*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="25"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2545,24 +2540,23 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:L34" si="32">H34*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
+        <f t="shared" ref="I34:L34" si="32">I34*0.5</f>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <f t="shared" si="32"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60C9F143-B90A-4B8E-A5B5-B18BB2F0FBC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B66A646-ACF4-44D4-8F2E-B2826FD3B29A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,24 +1119,23 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <f>H3*0.5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:L3" si="0">I3*0.5</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M3" s="1">
         <f>K3*0.5</f>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1257,24 +1256,23 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:L6" si="4">H6*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="I6:L6" si="4">I6*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1303,24 +1301,23 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:L7" si="5">H7*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <f t="shared" ref="I7:L7" si="5">I7*0.5</f>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1349,24 +1346,23 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:L8" si="6">H8*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
+        <f t="shared" ref="I8:L8" si="6">I8*0.5</f>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1487,24 +1483,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:L11" si="9">H11*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="I11:L11" si="9">I11*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="9"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1628,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="I14:L14" si="12">I14*0.5</f>
+        <f t="shared" ref="J14:L14" si="12">I14*0.5</f>
         <v>0</v>
       </c>
       <c r="K14" s="1">
@@ -1670,24 +1665,23 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:L15" si="13">H15*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
+        <f t="shared" ref="I15:L15" si="13">I15*0.5</f>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1765,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="I17:L17" si="15">I17*0.5</f>
+        <f t="shared" ref="J17:L17" si="15">I17*0.5</f>
         <v>0.5</v>
       </c>
       <c r="K17">
@@ -1856,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ref="I19:L19" si="17">I19*0.5</f>
+        <f t="shared" ref="J19:L19" si="17">I19*0.5</f>
         <v>0.5</v>
       </c>
       <c r="K19" s="1">
@@ -1898,24 +1892,23 @@
         <v>1</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:L20" si="18">H20*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" ref="I20:L20" si="18">I20*0.5</f>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="18"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="18"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2085,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="I24:L24" si="22">I24*0.5</f>
+        <f t="shared" ref="J24:L24" si="22">I24*0.5</f>
         <v>0</v>
       </c>
       <c r="K24">
@@ -2127,24 +2120,23 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:L25" si="23">H25*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="I25:L25" si="23">I25*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="23"/>
         <v>0.125</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="23"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2222,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="I27:L27" si="25">I27*0.5</f>
+        <f t="shared" ref="J27:L27" si="25">I27*0.5</f>
         <v>0.5</v>
       </c>
       <c r="K27" s="1">
@@ -2356,24 +2348,23 @@
         <v>1</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ref="I30:L30" si="28">H30*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" ref="I30:L30" si="28">I30*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="28"/>
         <v>0.125</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="28"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2448,24 +2439,23 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:L32" si="30">H32*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
+        <f t="shared" ref="I32:L32" si="30">I32*0.5</f>
+        <v>0</v>
       </c>
       <c r="K32">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="30"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2543,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="I34:L34" si="32">I34*0.5</f>
+        <f t="shared" ref="J34:L34" si="32">I34*0.5</f>
         <v>0</v>
       </c>
       <c r="K34">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B66A646-ACF4-44D4-8F2E-B2826FD3B29A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA9E86F7-367E-4054-B4D6-E252E36FF939}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,20 +1122,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:L3" si="0">I3*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f t="shared" ref="J3:L3" si="0">J3*0.5</f>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <f>K3*0.5</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1259,20 +1258,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="I6:L6" si="4">I6*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f t="shared" ref="J6:L6" si="4">J6*0.5</f>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1304,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="I7:L7" si="5">I7*0.5</f>
+        <f t="shared" ref="J7:L7" si="5">I7*0.5</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -1349,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="I8:L8" si="6">I8*0.5</f>
+        <f t="shared" ref="J8:L8" si="6">I8*0.5</f>
         <v>0</v>
       </c>
       <c r="K8">
@@ -1486,20 +1484,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="I11:L11" si="9">I11*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="J11:L11" si="9">J11*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="I15:L15" si="13">I15*0.5</f>
+        <f t="shared" ref="J15:L15" si="13">I15*0.5</f>
         <v>0</v>
       </c>
       <c r="K15">
@@ -1759,20 +1756,19 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:L17" si="15">I17*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="J17:L17" si="15">J17*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="15"/>
-        <v>0.125</v>
-      </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1850,20 +1846,19 @@
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ref="J19:L19" si="17">I19*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f t="shared" ref="J19:L19" si="17">J19*0.5</f>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1895,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="I20:L20" si="18">I20*0.5</f>
+        <f t="shared" ref="J20:L20" si="18">I20*0.5</f>
         <v>0</v>
       </c>
       <c r="K20" s="1">
@@ -2123,20 +2118,19 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="I25:L25" si="23">I25*0.5</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="23"/>
-        <v>0.25</v>
+        <f t="shared" ref="J25:L25" si="23">J25*0.5</f>
+        <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,20 +2208,19 @@
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27:L27" si="25">I27*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ref="J27:L27" si="25">J27*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="25"/>
-        <v>0.125</v>
-      </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2351,20 +2344,19 @@
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" ref="I30:L30" si="28">I30*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" ref="J30:L30" si="28">J30*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="28"/>
-        <v>0.125</v>
-      </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2442,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="I32:L32" si="30">I32*0.5</f>
+        <f t="shared" ref="J32:L32" si="30">I32*0.5</f>
         <v>0</v>
       </c>
       <c r="K32">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA9E86F7-367E-4054-B4D6-E252E36FF939}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C07C184B-ECE9-4858-BC9C-A313324B5B54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="J3:L3" si="0">J3*0.5</f>
+        <f t="shared" ref="K3:L3" si="0">J3*0.5</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="J6:L6" si="4">J6*0.5</f>
+        <f t="shared" ref="K6:L6" si="4">J6*0.5</f>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -1487,16 +1487,14 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="J11:L11" si="9">J11*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
         <v>0.5</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1525,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:L12" si="10">H12*0.5</f>
+        <f t="shared" ref="I12:L12" si="9">H12*0.5</f>
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
@@ -1571,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:L13" si="11">H13*0.5</f>
+        <f t="shared" ref="I13:L13" si="10">H13*0.5</f>
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
@@ -1620,15 +1618,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:L14" si="12">I14*0.5</f>
+        <f t="shared" ref="J14:L14" si="11">I14*0.5</f>
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
@@ -1665,15 +1663,15 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:L15" si="13">I15*0.5</f>
+        <f t="shared" ref="J15:L15" si="12">I15*0.5</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M15">
@@ -1707,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:L16" si="14">H16*0.5</f>
+        <f t="shared" ref="I16:L16" si="13">H16*0.5</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M16">
@@ -1759,16 +1757,14 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="J17:L17" si="15">J17*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
         <v>0.5</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:L18" si="16">H18*0.5</f>
+        <f t="shared" ref="I18:L18" si="14">H18*0.5</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M18">
@@ -1849,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" ref="J19:L19" si="17">J19*0.5</f>
+        <f t="shared" ref="K19:L19" si="15">J19*0.5</f>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
@@ -1890,15 +1886,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:L20" si="18">I20*0.5</f>
+        <f t="shared" ref="J20:L20" si="16">I20*0.5</f>
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
@@ -1932,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:L21" si="19">H21*0.5</f>
+        <f t="shared" ref="I21:L21" si="17">H21*0.5</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
@@ -1978,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:L22" si="20">H22*0.5</f>
+        <f t="shared" ref="I22:L22" si="18">H22*0.5</f>
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
@@ -2024,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:L23" si="21">H23*0.5</f>
+        <f t="shared" ref="I23:L23" si="19">H23*0.5</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M23">
@@ -2073,15 +2069,15 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:L24" si="22">I24*0.5</f>
+        <f t="shared" ref="J24:L24" si="20">I24*0.5</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M24">
@@ -2121,11 +2117,11 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="J25:L25" si="23">J25*0.5</f>
+        <f t="shared" ref="K25:L25" si="21">J25*0.5</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M25">
@@ -2159,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:L26" si="24">H26*0.5</f>
+        <f t="shared" ref="I26:L26" si="22">H26*0.5</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M26">
@@ -2211,16 +2207,14 @@
         <v>1</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="J27:L27" si="25">J27*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.5</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2249,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28:L28" si="26">H28*0.5</f>
+        <f t="shared" ref="I28:L28" si="23">H28*0.5</f>
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
@@ -2295,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:L29" si="27">H29*0.5</f>
+        <f t="shared" ref="I29:L29" si="24">H29*0.5</f>
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
@@ -2347,16 +2341,14 @@
         <v>1</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" ref="J30:L30" si="28">J30*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
         <v>0.5</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="28"/>
-        <v>0.25</v>
-      </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:L31" si="29">H31*0.5</f>
+        <f t="shared" ref="I31:L31" si="25">H31*0.5</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M31">
@@ -2434,15 +2426,15 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:L32" si="30">I32*0.5</f>
+        <f t="shared" ref="J32:L32" si="26">I32*0.5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M32">
@@ -2476,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:L33" si="31">H33*0.5</f>
+        <f t="shared" ref="I33:L33" si="27">H33*0.5</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M33">
@@ -2525,15 +2517,15 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:L34" si="32">I34*0.5</f>
+        <f t="shared" ref="J34:L34" si="28">I34*0.5</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M34">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C07C184B-ECE9-4858-BC9C-A313324B5B54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB0F4499-C9CE-4F68-98A3-67344DF35AA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,8 +1493,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1763,8 +1762,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
@@ -2344,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
